--- a/Planejamento Curso/Estrutura geral do curso.xlsx
+++ b/Planejamento Curso/Estrutura geral do curso.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f01501c8a101b1e/02 - Professional Documents/06 - Lecture/Econometria - ENAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f01501c8a101b1e/02 - Professional Documents/06 - Lectures/Econometria_ENAP/Planejamento Curso/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="36" documentId="8_{73F7A75B-D028-46AA-90E5-3F56DFECDE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9CBD8ED-8F9D-479E-9A81-5DF5E6C97ABC}"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Planejamento Curso/Estrutura geral do curso.xlsx
+++ b/Planejamento Curso/Estrutura geral do curso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f01501c8a101b1e/02 - Professional Documents/06 - Lectures/Econometria_ENAP/Planejamento Curso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{73F7A75B-D028-46AA-90E5-3F56DFECDE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9CBD8ED-8F9D-479E-9A81-5DF5E6C97ABC}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{73F7A75B-D028-46AA-90E5-3F56DFECDE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BBFFEC4-3897-42DB-8966-9289072B603A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1C5D87F-AFCB-4585-B664-B58A647D0592}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E1C5D87F-AFCB-4585-B664-B58A647D0592}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>Lista 1: Criar uma função que implementa um processo gerador de dados e que use "n" como parâmetro. Então demonstrar que conforme "n" cresce, a média amostral converge para a média teórica.</t>
   </si>
   <si>
-    <t>Lista 2: Criar uma função que, para um dado processo gerador de dados e um nível de confiança: (i) testa uma H0 de maneira repetida; e (ii) calcula o poder do teste</t>
-  </si>
-  <si>
     <t>Lista 3: Criar uma função que produz uma base de dados seguindo um PGD específico e, em seguida, criar uma DAG para esse PGD</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Teste de hipóteses, poder do teste, p-valor, Erro Tipo I e Erro Tipo II; intervalo de confiança; Viés e consistência de estimador</t>
+  </si>
+  <si>
+    <t>Lista 2: Criar uma função que, para um dado processo gerador de dados e um nível de confiança: (i) testa uma H0 de maneira repetida; e (ii) calcula erros tipo I e II</t>
   </si>
 </sst>
 </file>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4F1D69-3466-44BC-8D48-566665BA09FC}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,10 +575,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">

--- a/Planejamento Curso/Estrutura geral do curso.xlsx
+++ b/Planejamento Curso/Estrutura geral do curso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f01501c8a101b1e/02 - Professional Documents/06 - Lectures/Econometria_ENAP/Planejamento Curso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{73F7A75B-D028-46AA-90E5-3F56DFECDE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BBFFEC4-3897-42DB-8966-9289072B603A}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{73F7A75B-D028-46AA-90E5-3F56DFECDE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48B40C3-6A7E-4C04-A691-874FDD92C13F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E1C5D87F-AFCB-4585-B664-B58A647D0592}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1C5D87F-AFCB-4585-B664-B58A647D0592}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>Lista 1: Criar uma função que implementa um processo gerador de dados e que use "n" como parâmetro. Então demonstrar que conforme "n" cresce, a média amostral converge para a média teórica.</t>
   </si>
   <si>
-    <t>Lista 3: Criar uma função que produz uma base de dados seguindo um PGD específico e, em seguida, criar uma DAG para esse PGD</t>
-  </si>
-  <si>
     <t>Lista 4: adaptar a função da lista 4 para estimar o MQO e aplicar a função para um conjunto de PGDs pré-especificados</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Lista 2: Criar uma função que, para um dado processo gerador de dados e um nível de confiança: (i) testa uma H0 de maneira repetida; e (ii) calcula erros tipo I e II</t>
+  </si>
+  <si>
+    <t>Lista 3: Criar uma função que produz uma base de dados seguindo um PGD específico e, em seguida, criar um DAG para esse PGD</t>
   </si>
 </sst>
 </file>
@@ -575,10 +575,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
